--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_0</t>
+          <t>model_22_3_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999725909228852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990573586657896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9998944825218106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999789093919152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999182320163053</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.558517036724789e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008799143083129368</v>
       </c>
       <c r="I2" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001472337679308854</v>
       </c>
       <c r="J2" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.15175906314148e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.937567928115011e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003185012387814086</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005058178562214652</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000038695167692</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005273515695481226</v>
       </c>
       <c r="P2" t="n">
-        <v>100.40878827957</v>
+        <v>103.1469953137142</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1209041333104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_22</t>
+          <t>model_22_3_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999728855296113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990564175101938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9998959206341197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999788746249005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999192558112617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.531016792015338e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008807928357497334</v>
       </c>
       <c r="I3" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001452270985371712</v>
       </c>
       <c r="J3" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.153657691391651e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.838183772554385e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003213210083516168</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005030921180077598</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000038279252313</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005245097910156038</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>103.1686086977828</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>153.142517517379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_21</t>
+          <t>model_22_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999732056265778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990553558295356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9998975157236147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999788269800344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999203888037597</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.501137145256621e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000881783868041752</v>
       </c>
       <c r="I4" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001430013910945274</v>
       </c>
       <c r="J4" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.156259579689735e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.728199344571237e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003244507699737741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005001137015976088</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000037827350714</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005214045772527006</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>103.19235995682</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1662687764162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_20</t>
+          <t>model_22_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999735505297692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990541704589598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9998992754132662</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999787657025544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999216335051023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.468941946284989e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008828903594425073</v>
       </c>
       <c r="I5" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001405460088942092</v>
       </c>
       <c r="J5" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.159605945649702e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.607370861210372e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003278703040278962</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004968844882148152</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000037340428561</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005180378895708083</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>103.2182715358628</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1921803554591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_19</t>
+          <t>model_22_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999739234437186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990528355944712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999012225100296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999786923580651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999230150121922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.434132066012588e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008841363968487559</v>
       </c>
       <c r="I6" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001378291282605888</v>
       </c>
       <c r="J6" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.163611291531681e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.473262058795281e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003316237571951391</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004933692396180155</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036813961809</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00514372989563675</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>103.246670426077</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2205792456732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_18</t>
+          <t>model_22_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999743149631809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990513275006083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999033445893806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999785891037163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999245111115425</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.397585442780653e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008855441362721773</v>
       </c>
       <c r="I7" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001348680857483063</v>
       </c>
       <c r="J7" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.169250016196276e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.328029295513451e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003357708350012782</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00489651451828814</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036261228451</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005104969278514056</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>103.276926599096</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2508354186922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_17</t>
+          <t>model_22_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999974724567298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990496085086725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999056547386764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.999978456303359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999261340664485</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.359350696410027e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008871487397891924</v>
       </c>
       <c r="I8" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001316446199193724</v>
       </c>
       <c r="J8" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.176502249724065e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>7.170482120830655e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003403224526816273</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004857314789479911</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000035682963815</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005064100736095836</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>103.3090780248547</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2829868444509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_16</t>
+          <t>model_22_3_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999751589247136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990476822645158</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999082077594839</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999782903589507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999279222508504</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.318805338266505e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008889468041571923</v>
       </c>
       <c r="I9" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001280822634308325</v>
       </c>
       <c r="J9" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.185564481381522e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>6.996895412232384e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003453184506954858</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004815397531114649</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000035069753346</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005020398973261277</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>103.3437467046434</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3176555242397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_15</t>
+          <t>model_22_3_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999756029564093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990455058910916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.999910974387391</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999780725647875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999298493708219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.277356928551199e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008909783532168728</v>
       </c>
       <c r="I10" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001242218503672732</v>
       </c>
       <c r="J10" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.197458230504662e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>6.809821633615991e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003508087589167091</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00477216609995</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034442885069</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004975327090570549</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>103.3798198726159</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3537286922122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_14</t>
+          <t>model_22_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999976059322864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990430411789265</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999139989608272</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999778040777337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999319476178838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.234757123213243e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008932790538346913</v>
       </c>
       <c r="I11" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001200015131203554</v>
       </c>
       <c r="J11" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.212120320673745e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>6.606135816354642e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003567235399110237</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00472732178216508</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000033798603015</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004928573657336991</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>103.4175858250258</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3914946446221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_13</t>
+          <t>model_22_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999765174009664</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990402266960854</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999172841917062</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999774725938742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999342154802526</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.191997543096203e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008959062500253067</v>
       </c>
       <c r="I12" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001154174676226117</v>
       </c>
       <c r="J12" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.230222669266381e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>6.385984715763778e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003631305446162032</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004681877340443898</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000033151904518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004881194551648775</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>103.4562244334707</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4301332530669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_23</t>
+          <t>model_22_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999769649683165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990370589383444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999208372467289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999770549791474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999366516015089</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.150219095551268e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008988632128280025</v>
       </c>
       <c r="I13" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001104597138208118</v>
       </c>
       <c r="J13" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.253028628423353e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>6.149500005252266e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003701064505580868</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004637045498538124</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00003252004473</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004834454125418365</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>103.4947114462301</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4686202658263</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999774015715477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999033513684626</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999247066555863</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999765772572711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999392981799828</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.109464100390959e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009021725515554589</v>
       </c>
       <c r="I14" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>0.0001050605358312638</v>
       </c>
       <c r="J14" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.279117041733464e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>5.892585312429922e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003775316313907666</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004592890266913591</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031903663697</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004788419114169645</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>103.5329830611964</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5068918807927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_10</t>
+          <t>model_22_3_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999777859909298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990294380525899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999288292901795</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999759669141352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999420894486359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.073580238474958e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009059769751616023</v>
       </c>
       <c r="I15" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>9.93080194200797e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.312447908040606e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>5.621624925024287e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003856135485441103</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004553658132177863</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031360953981</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004747516786236502</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>103.5672975357925</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5412063553888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_9</t>
+          <t>model_22_3_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999781236303374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990248399413394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999332981260873</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.999975242260785</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999450973797291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.042063081838798e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009102691101802425</v>
       </c>
       <c r="I16" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>9.307243115292618e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.352021260323241e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>5.329632187807929e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003942677709199689</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004518919209101661</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030884286582</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004711298955285463</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>103.5979297070427</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>153.571838526639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_8</t>
+          <t>model_22_3_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999978372725472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990196264008927</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999380526974727</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999743954083631</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999482762973683</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.018811144424163e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000915135721339236</v>
       </c>
       <c r="I17" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>8.643814200975663e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.398267909457863e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>5.021041055216763e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004034412796105347</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004493118231723001</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030532622863</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004684399576884407</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>103.6208333383609</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5947421579571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_7</t>
+          <t>model_22_3_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999785118223954</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990138005881417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999431098754612</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999734546581784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999516462874486</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.005827057187077e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009205738618186328</v>
       </c>
       <c r="I18" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>7.938161087267512e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.449642319667256e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>4.693901703467383e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004128652407990863</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004478646064590365</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030336250736</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00466931129963542</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>103.6337379838304</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6076468034266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_6</t>
+          <t>model_22_3_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999978482356387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990072895954343</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999483892292284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999724255603002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999551491692276</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.008577579732539e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009266515877115366</v>
       </c>
       <c r="I19" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>7.201506685829263e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.505841401429894e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>4.353861986099022e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004224908007473032</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004481715720271132</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030377849807</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004672511636913578</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>103.6309973303839</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6049061499802</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_5</t>
+          <t>model_22_3_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999782717594072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999000107603992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999540137121851</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999713655589163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.999958895275659</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.028235883382174e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009333556614698276</v>
       </c>
       <c r="I20" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>6.416694697720249e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.563728125030418e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>3.990211411375334e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004320518792775426</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004503593990783554</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00003067516319</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004695321310695979</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>103.6115181454007</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5854269649969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_4</t>
+          <t>model_22_3_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999778251368089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989923572199363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999599122255013</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999704608984585</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999628800864401</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.069926142493499e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000940590304783288</v>
       </c>
       <c r="I21" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>5.593645895151942e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.613131673618223e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>3.603388784385083e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004412061833730867</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004549644098710909</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031305689211</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004743331867054666</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>103.5708250765687</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5447338961649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_3</t>
+          <t>model_22_3_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999770769401084</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989843480174928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.999966041794364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999700155026697</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999671601391315</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.139767020280001e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009480665437010052</v>
       </c>
       <c r="I22" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>4.738356766820788e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.637454757827333e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>3.18790576232406e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004502862003883709</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004625761580842663</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000032361966906</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004822689827985679</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>103.5044570217823</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4783658413786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_2</t>
+          <t>model_22_3_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999759148669479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989762871816444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999723259748917</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.999970284464537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999717522458379</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.248241448898537e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009555909801356036</v>
       </c>
       <c r="I23" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>3.861493906434759e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.622766738070652e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>2.742130322252706e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004603057517614868</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004741562452292005</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034002540779</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004943420582273469</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>103.4055542652255</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3794630848217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_1</t>
+          <t>model_22_3_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999974200771291</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.998968899859716</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999784548562639</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999718230121192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.999976589847405</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.408244754462745e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009624867208898475</v>
       </c>
       <c r="I24" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>3.006300707054296e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.538746584895418e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>2.272523645974857e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004704998785817867</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004907387038397059</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00003642244053</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005116304664313231</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>103.2680546009402</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2419634205365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_11</t>
+          <t>model_22_3_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999971761450658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.998962861485615</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999841267330543</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999751319155743</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999815969640107</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.635944628167136e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009681232780592204</v>
       </c>
       <c r="I25" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>2.214875622402684e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.358047217280066e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>1.786461419841374e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004801879210398119</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005134145136405024</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000039866187306</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005352716324007369</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>103.087367709114</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>153.0612765287102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_3_24</t>
+          <t>model_22_3_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999684454911321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989584569617904</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999995673225303</v>
+        <v>0.9999893746777766</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999593761663</v>
+        <v>0.9999803782924166</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999997932139441</v>
+        <v>0.9999868452261689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.945474894539345e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009722347077131216</v>
       </c>
       <c r="I26" t="n">
-        <v>2.120565769594884e-07</v>
+        <v>1.482603880674469e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>2.685681653568144e-08</v>
+        <v>1.071542340204817e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.194566967475849e-07</v>
+        <v>1.276990163449178e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0004880703027942576</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005427222949667118</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000044547541931</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005658271066534741</v>
       </c>
       <c r="P26" t="n">
-        <v>100.40878827957</v>
+        <v>102.8653108127086</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826970991662</v>
+        <v>152.8392196323048</v>
       </c>
     </row>
   </sheetData>
